--- a/data/trans_orig/P5708-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>297826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>275770</v>
+        <v>275273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>322617</v>
+        <v>321766</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5098522156043288</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4720949142807321</v>
+        <v>0.4712446985619939</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5522921724638334</v>
+        <v>0.5508362536950127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>503</v>
@@ -765,19 +765,19 @@
         <v>518722</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>487981</v>
+        <v>486068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>546730</v>
+        <v>550590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5630004072407835</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5296355181247725</v>
+        <v>0.5275587818919639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5933995146176434</v>
+        <v>0.5975884960062007</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>790</v>
@@ -786,19 +786,19 @@
         <v>816548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>777338</v>
+        <v>776137</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>853351</v>
+        <v>854091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5423785720277948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5163342508865907</v>
+        <v>0.5155363293141064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5668243599649506</v>
+        <v>0.5673160238290783</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>135432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116660</v>
+        <v>117690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156378</v>
+        <v>156819</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2318484108898986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1997120315705794</v>
+        <v>0.2014754619481112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2677056774503356</v>
+        <v>0.2684614270312458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -836,19 +836,19 @@
         <v>159520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139163</v>
+        <v>137534</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184446</v>
+        <v>187032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1731371772360105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1510421598725257</v>
+        <v>0.1492739287126136</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2001903906153942</v>
+        <v>0.2029970723278889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>287</v>
@@ -857,19 +857,19 @@
         <v>294953</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265872</v>
+        <v>266783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>325256</v>
+        <v>330199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1959175080108266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.176601140462094</v>
+        <v>0.1772061578529151</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2160462074880796</v>
+        <v>0.2193293415898923</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>114648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96466</v>
+        <v>94670</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>132420</v>
+        <v>134976</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.196267055320335</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1651416522793071</v>
+        <v>0.1620677337711547</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2266913861702126</v>
+        <v>0.2310670169343716</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>153</v>
@@ -907,19 +907,19 @@
         <v>164758</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145166</v>
+        <v>140412</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>189038</v>
+        <v>190292</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.178822177963397</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1575575159112086</v>
+        <v>0.1523974633788352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2051740069141204</v>
+        <v>0.2065349259436905</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>269</v>
@@ -928,19 +928,19 @@
         <v>279406</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>249506</v>
+        <v>252355</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>313575</v>
+        <v>315345</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.185590900945099</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1657303409447327</v>
+        <v>0.1676225683421726</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2082868545137807</v>
+        <v>0.2094629662469799</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>28863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20064</v>
+        <v>20265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40566</v>
+        <v>41294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04941115269821265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03434733981452202</v>
+        <v>0.03469135104160153</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06944541948879043</v>
+        <v>0.07069140519333407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -978,19 +978,19 @@
         <v>69436</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54475</v>
+        <v>54204</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88844</v>
+        <v>89522</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07536263850097673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05912541629155108</v>
+        <v>0.05883052692977545</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09642727821376867</v>
+        <v>0.09716350022003516</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -999,19 +999,19 @@
         <v>98299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80626</v>
+        <v>80945</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118889</v>
+        <v>120134</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06529329752664072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05355459329092867</v>
+        <v>0.05376631444440776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0789703386369723</v>
+        <v>0.07979734183406949</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>7373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3478</v>
+        <v>3531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13442</v>
+        <v>14657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01262116548722499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005953515670104726</v>
+        <v>0.006044982440019166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02301121527947299</v>
+        <v>0.02509090970502621</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1049,19 +1049,19 @@
         <v>8916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4364</v>
+        <v>4215</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17536</v>
+        <v>17011</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009677599058832377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004736263258839268</v>
+        <v>0.004574427926801778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01903268038747362</v>
+        <v>0.01846351008892292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1070,19 +1070,19 @@
         <v>16289</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9322</v>
+        <v>9017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26207</v>
+        <v>24776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01081972148963889</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006191903127797644</v>
+        <v>0.005989095197221555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01740729144373565</v>
+        <v>0.01645676995838145</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>585423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>551589</v>
+        <v>553356</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>620232</v>
+        <v>619645</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5431173476643936</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5117281248626404</v>
+        <v>0.5133676509937398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5754114006970433</v>
+        <v>0.5748661114971915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>549</v>
@@ -1195,19 +1195,19 @@
         <v>564654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>532643</v>
+        <v>527151</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>598934</v>
+        <v>594967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5339321822283756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5036636879131932</v>
+        <v>0.4984697756437228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5663477301060919</v>
+        <v>0.5625967020186382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1115</v>
@@ -1216,19 +1216,19 @@
         <v>1150077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1102939</v>
+        <v>1100868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1195425</v>
+        <v>1196253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5385685437917871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5164946729428377</v>
+        <v>0.5155247451463747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5598046386600656</v>
+        <v>0.5601924631040813</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>320860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291001</v>
+        <v>292036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>349254</v>
+        <v>352178</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2976728098308671</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2699720037064113</v>
+        <v>0.2709323632168677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3240151093342142</v>
+        <v>0.3267274826578228</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>283</v>
@@ -1266,19 +1266,19 @@
         <v>286891</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259320</v>
+        <v>259566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316609</v>
+        <v>317631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2712822512324237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2452111495852293</v>
+        <v>0.2454437956522968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2993828586813517</v>
+        <v>0.3003498183109209</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>600</v>
@@ -1287,19 +1287,19 @@
         <v>607751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>565951</v>
+        <v>565837</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>649509</v>
+        <v>649240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2846033146770715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2650287831728386</v>
+        <v>0.2649756201446501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3041579477282296</v>
+        <v>0.3040322982798638</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>141904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>122193</v>
+        <v>122778</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>167707</v>
+        <v>166151</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1316497042053352</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1133628729853118</v>
+        <v>0.1139055906574829</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1555877622380119</v>
+        <v>0.1541442263361546</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>159</v>
@@ -1337,19 +1337,19 @@
         <v>166056</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>142382</v>
+        <v>142864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190501</v>
+        <v>189568</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.157021569410251</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1346352160514005</v>
+        <v>0.1350910244103141</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.18013643844514</v>
+        <v>0.17925440186265</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>303</v>
@@ -1358,19 +1358,19 @@
         <v>307961</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>278209</v>
+        <v>276915</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>339223</v>
+        <v>339405</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1442147080153706</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1302824943337508</v>
+        <v>0.1296762998524088</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.158854691194098</v>
+        <v>0.1589398930620286</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>27131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18263</v>
+        <v>18297</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39272</v>
+        <v>39931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02517017504701748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01694362121022794</v>
+        <v>0.01697468625117556</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0364336929089918</v>
+        <v>0.03704525971653879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1408,19 +1408,19 @@
         <v>36911</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26634</v>
+        <v>26467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50753</v>
+        <v>52248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03490322065849128</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02518487438374257</v>
+        <v>0.02502670349531189</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04799176238755939</v>
+        <v>0.04940557247539577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -1429,19 +1429,19 @@
         <v>64042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50151</v>
+        <v>49351</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80701</v>
+        <v>81606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02999030767044485</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02348526074067186</v>
+        <v>0.02311040088428992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03779148302134473</v>
+        <v>0.03821498645176988</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9139</v>
+        <v>10114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002389963252386581</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.00847874813564675</v>
+        <v>0.009383475033724505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7955</v>
+        <v>8955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00286077647045851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009167780575348985</v>
+        <v>0.0009209579130172105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007522612195589178</v>
+        <v>0.008467310285737495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>5602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1950</v>
+        <v>1955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12659</v>
+        <v>12898</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002623125845326048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009133622092292688</v>
+        <v>0.0009154786506770214</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005927984034383866</v>
+        <v>0.006039799332447552</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>634678</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>601638</v>
+        <v>597683</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>668969</v>
+        <v>666567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5658714704214908</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5364137997679898</v>
+        <v>0.5328875292269178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5964449180524187</v>
+        <v>0.5943031912545151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>507</v>
@@ -1625,19 +1625,19 @@
         <v>511120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>475844</v>
+        <v>479032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539887</v>
+        <v>543429</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5142363108472404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4787454693603745</v>
+        <v>0.4819527917618166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5431786971074601</v>
+        <v>0.5467417988245453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1126</v>
@@ -1646,19 +1646,19 @@
         <v>1145798</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1096383</v>
+        <v>1101276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1186840</v>
+        <v>1192745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5416117643619907</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5182535648076293</v>
+        <v>0.5205663910904743</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5610118840464355</v>
+        <v>0.5638032848112293</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>314076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>287060</v>
+        <v>286179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>345461</v>
+        <v>345444</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.280026889198952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2559395152200576</v>
+        <v>0.2551539187631606</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3080087714572915</v>
+        <v>0.3079934638329078</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>305</v>
@@ -1696,19 +1696,19 @@
         <v>306245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>276409</v>
+        <v>277254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>334800</v>
+        <v>335563</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3081123888257408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2780945174576319</v>
+        <v>0.2789442434871994</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3368416845559056</v>
+        <v>0.3376086777723899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>618</v>
@@ -1717,19 +1717,19 @@
         <v>620322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>580183</v>
+        <v>578350</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>666330</v>
+        <v>662612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2932222772077822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.274248776506073</v>
+        <v>0.2733823915558599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3149699292844583</v>
+        <v>0.3132124787098958</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>142469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>121271</v>
+        <v>120512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>165829</v>
+        <v>164997</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1270235516319412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1081235693292308</v>
+        <v>0.1074468952978226</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.147851191800177</v>
+        <v>0.1471091061904513</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>145</v>
@@ -1767,19 +1767,19 @@
         <v>149070</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>127952</v>
+        <v>126743</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>171123</v>
+        <v>174252</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1499784322941896</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.128732609908633</v>
+        <v>0.1275156538576284</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1721666108765731</v>
+        <v>0.1753142802145541</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>286</v>
@@ -1788,19 +1788,19 @@
         <v>291538</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>260634</v>
+        <v>260502</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>325016</v>
+        <v>325151</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1378084250028905</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1231999872355967</v>
+        <v>0.12313758002048</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1536331144912639</v>
+        <v>0.1536968939483381</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>28400</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18384</v>
+        <v>19100</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39339</v>
+        <v>41526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02532107548631117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01639108763222213</v>
+        <v>0.01702975915361842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03507418829415523</v>
+        <v>0.03702373195697201</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1838,19 +1838,19 @@
         <v>24537</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15608</v>
+        <v>15798</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36514</v>
+        <v>36041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02468646328654739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01570296796403609</v>
+        <v>0.01589411190951536</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03673682296200639</v>
+        <v>0.03626030035774959</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -1859,19 +1859,19 @@
         <v>52937</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40457</v>
+        <v>39216</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69597</v>
+        <v>68753</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0250229161399475</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0191240013463459</v>
+        <v>0.01853697115681676</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03289829178127116</v>
+        <v>0.03249916323781665</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6327</v>
+        <v>5945</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00175701326130496</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005641014096537943</v>
+        <v>0.005300816938069297</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>2968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8677</v>
+        <v>8947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002986404746281825</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0009378121489947979</v>
+        <v>0.000943387232290062</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008729404689365226</v>
+        <v>0.009002049366459732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1930,19 +1930,19 @@
         <v>4939</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1915</v>
+        <v>1942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11092</v>
+        <v>11187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002334617287389238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0009053265839983872</v>
+        <v>0.0009181914101465944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005243012494945116</v>
+        <v>0.00528805244782753</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>253038</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229394</v>
+        <v>230766</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>273508</v>
+        <v>270944</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5677943870052551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5147404190340078</v>
+        <v>0.5178193093375912</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6137280594776222</v>
+        <v>0.6079738827752008</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>219</v>
@@ -2055,19 +2055,19 @@
         <v>217373</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>199992</v>
+        <v>200444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>234435</v>
+        <v>234059</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6371627537058074</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5862163084042321</v>
+        <v>0.5875394049048998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6871741073359386</v>
+        <v>0.6860731368101914</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>467</v>
@@ -2076,19 +2076,19 @@
         <v>470411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>442171</v>
+        <v>441654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>495025</v>
+        <v>499411</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5978723605938938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5619813030872198</v>
+        <v>0.5613242796839726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6291557188401573</v>
+        <v>0.6347300543030486</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>126489</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109444</v>
+        <v>109617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146702</v>
+        <v>145939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2838295667823724</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2455837863494202</v>
+        <v>0.2459720671702998</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3291858957434383</v>
+        <v>0.3274741445162371</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2126,19 +2126,19 @@
         <v>84379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70089</v>
+        <v>68458</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>101191</v>
+        <v>99390</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2473325024098167</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2054448938138786</v>
+        <v>0.2006622037979408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2966099828233029</v>
+        <v>0.2913319605708503</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>210</v>
@@ -2147,19 +2147,19 @@
         <v>210868</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>188095</v>
+        <v>186820</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>236176</v>
+        <v>237453</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2680045187024694</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2390611251408315</v>
+        <v>0.2374405860901922</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3001701290017013</v>
+        <v>0.301792829186395</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>52045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38649</v>
+        <v>39545</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67858</v>
+        <v>67223</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1167852293478424</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08672576887073569</v>
+        <v>0.0887355246152858</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1522666559141255</v>
+        <v>0.1508416686201557</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -2197,19 +2197,19 @@
         <v>33475</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23678</v>
+        <v>23623</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45562</v>
+        <v>45714</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09812288911622014</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06940436441655341</v>
+        <v>0.06924493952044715</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.133551951922605</v>
+        <v>0.1339970282526574</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>79</v>
@@ -2218,19 +2218,19 @@
         <v>85521</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>70654</v>
+        <v>68644</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106721</v>
+        <v>105205</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1086932790355042</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08979841898021126</v>
+        <v>0.08724412546061576</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1356380760242116</v>
+        <v>0.1337116029208489</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>13151</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6596</v>
+        <v>6802</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23470</v>
+        <v>23051</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0295097639606427</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01480122968633397</v>
+        <v>0.01526331610958477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05266507822492479</v>
+        <v>0.05172555235099117</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2268,19 +2268,19 @@
         <v>5930</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2109</v>
+        <v>2253</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13150</v>
+        <v>13865</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0173818547681558</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00618063841460862</v>
+        <v>0.006602623243521764</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03854641533699516</v>
+        <v>0.04063987680418617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2289,19 +2289,19 @@
         <v>19081</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11183</v>
+        <v>11218</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30644</v>
+        <v>30380</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02425112879698494</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01421278333518135</v>
+        <v>0.01425815808423501</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03894730545042211</v>
+        <v>0.03861223618267807</v>
       </c>
     </row>
     <row r="26">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4246</v>
+        <v>5309</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002081052903887414</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009527381594404562</v>
+        <v>0.01191346332569063</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5034</v>
+        <v>4673</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001178712871147574</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006397821923345001</v>
+        <v>0.005939403180898306</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>1770964</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1713800</v>
+        <v>1711328</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1825162</v>
+        <v>1835192</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5484085184193632</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5307068341665774</v>
+        <v>0.5299411153294833</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5651918827427664</v>
+        <v>0.5682977326907787</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1778</v>
@@ -2477,19 +2477,19 @@
         <v>1811869</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1752605</v>
+        <v>1757717</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1876611</v>
+        <v>1864461</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5467335338424923</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.528850492232395</v>
+        <v>0.5303931065200129</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5662696553073772</v>
+        <v>0.5626032159957174</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3498</v>
@@ -2498,19 +2498,19 @@
         <v>3582833</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3502294</v>
+        <v>3504263</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3661346</v>
+        <v>3659602</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5475601839103508</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5352514492492224</v>
+        <v>0.5355523512839937</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5595592898149033</v>
+        <v>0.5592926622727781</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>896857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>846521</v>
+        <v>845021</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>946008</v>
+        <v>950532</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2777267002065046</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2621394198820765</v>
+        <v>0.261674763601891</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2929471047767149</v>
+        <v>0.294348189615063</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>825</v>
@@ -2548,19 +2548,19 @@
         <v>837036</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>788865</v>
+        <v>788119</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>890480</v>
+        <v>890898</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2525767018164702</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2380409053528514</v>
+        <v>0.2378157549554364</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2687033583208798</v>
+        <v>0.268829375996457</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1715</v>
@@ -2569,19 +2569,19 @@
         <v>1733893</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1666863</v>
+        <v>1660812</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1806656</v>
+        <v>1805210</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2649889043900607</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.254744734932086</v>
+        <v>0.2538198915561696</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2761091488014262</v>
+        <v>0.2758882043412003</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>451066</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>413271</v>
+        <v>415334</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>489648</v>
+        <v>496863</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.139680182351898</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1279763628927156</v>
+        <v>0.1286151925865564</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1516275268942413</v>
+        <v>0.1538617635106273</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>488</v>
@@ -2619,19 +2619,19 @@
         <v>513360</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>473074</v>
+        <v>471092</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>558456</v>
+        <v>553873</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1549068495870089</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1427507151812139</v>
+        <v>0.1421524922110115</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1685147681864815</v>
+        <v>0.1671318963453869</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>937</v>
@@ -2640,19 +2640,19 @@
         <v>964426</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>903698</v>
+        <v>908120</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1021096</v>
+        <v>1018909</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1473920785992804</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1381111185791932</v>
+        <v>0.1387868823606312</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1560529084139661</v>
+        <v>0.1557186656438006</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>97545</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>80755</v>
+        <v>79295</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>121486</v>
+        <v>117527</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03020638976047931</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02500698611703548</v>
+        <v>0.02455516744707338</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03762019433960282</v>
+        <v>0.03639416453166176</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>128</v>
@@ -2690,19 +2690,19 @@
         <v>136814</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>114816</v>
+        <v>114750</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>162484</v>
+        <v>161742</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04128375300742067</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03464596685231474</v>
+        <v>0.03462588747110401</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04902986522714635</v>
+        <v>0.04880582875308213</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>223</v>
@@ -2711,19 +2711,19 @@
         <v>234359</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>204327</v>
+        <v>205123</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>266567</v>
+        <v>271075</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03581677545656869</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03122698781490623</v>
+        <v>0.03134878207333138</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04073912136534536</v>
+        <v>0.04142807402385934</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>12847</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7098</v>
+        <v>7394</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21597</v>
+        <v>22517</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003978209261754758</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002198022523706033</v>
+        <v>0.002289542058716385</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.006687867329067119</v>
+        <v>0.006972624555271099</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2761,19 +2761,19 @@
         <v>14910</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7522</v>
+        <v>8606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24148</v>
+        <v>25599</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004499161746607869</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002269854978933778</v>
+        <v>0.002596750503842453</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.007286545170000695</v>
+        <v>0.007724481872837763</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -2782,19 +2782,19 @@
         <v>27757</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18622</v>
+        <v>18340</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39501</v>
+        <v>39657</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004242057643739444</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002845934302277885</v>
+        <v>0.002802808111315636</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006036864967913285</v>
+        <v>0.006060765025019448</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>593620</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>559978</v>
+        <v>560026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>624295</v>
+        <v>631461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5733983974884364</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5409018201335288</v>
+        <v>0.5409480526068561</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6030283326333419</v>
+        <v>0.6099500992617346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>530</v>
@@ -3147,19 +3147,19 @@
         <v>575974</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>544508</v>
+        <v>542744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>609915</v>
+        <v>611558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5161572555086621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4879586698671857</v>
+        <v>0.4863781504385586</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5465731526021446</v>
+        <v>0.5480451795759302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1085</v>
@@ -3168,19 +3168,19 @@
         <v>1169595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1123542</v>
+        <v>1116196</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1219015</v>
+        <v>1212316</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5437051795446186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5222970685260953</v>
+        <v>0.5188820403882197</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5666788517016429</v>
+        <v>0.5635649051386253</v>
       </c>
     </row>
     <row r="5">
@@ -3197,19 +3197,19 @@
         <v>245778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>218366</v>
+        <v>214720</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>274427</v>
+        <v>273308</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2374056413391277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2109267718624524</v>
+        <v>0.2074058281096252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.265078850399516</v>
+        <v>0.2639978202158193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -3218,19 +3218,19 @@
         <v>353086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320218</v>
+        <v>318562</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>382707</v>
+        <v>387240</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3164163877122209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2869623081357949</v>
+        <v>0.2854780490444835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3429612960359499</v>
+        <v>0.347023998602366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>562</v>
@@ -3239,19 +3239,19 @@
         <v>598864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>556073</v>
+        <v>560028</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>642287</v>
+        <v>643458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2783916040718233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2584998303780906</v>
+        <v>0.2603379524687909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2985774396422483</v>
+        <v>0.299121807837448</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>135627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114809</v>
+        <v>112914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158983</v>
+        <v>161157</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.131006935632931</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1108974810365863</v>
+        <v>0.1090674950227509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1535673328506075</v>
+        <v>0.1556669809203361</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -3289,19 +3289,19 @@
         <v>137757</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>114056</v>
+        <v>115173</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>161153</v>
+        <v>160028</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1234501249986215</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1022111890663144</v>
+        <v>0.1032114808942323</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1444162987307146</v>
+        <v>0.143408753603765</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -3310,19 +3310,19 @@
         <v>273384</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>244731</v>
+        <v>240783</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>306675</v>
+        <v>307709</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.127086922555554</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1137671048422539</v>
+        <v>0.1119319667142627</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1425629156543857</v>
+        <v>0.1430433562618165</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>50210</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36450</v>
+        <v>36317</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65574</v>
+        <v>66083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04849944253307611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03520818455949341</v>
+        <v>0.03507983027868958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06334015723639355</v>
+        <v>0.06383202683719251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3360,19 +3360,19 @@
         <v>29287</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19121</v>
+        <v>19360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42756</v>
+        <v>43554</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02624543136844762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01713526433577321</v>
+        <v>0.01734970914872831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03831557619315381</v>
+        <v>0.03903056792962029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3381,19 +3381,19 @@
         <v>79497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61269</v>
+        <v>61726</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98609</v>
+        <v>98508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03695541701609823</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02848196966085368</v>
+        <v>0.02869421954255533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04584021756066905</v>
+        <v>0.04579297701165834</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>10031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4368</v>
+        <v>4930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18321</v>
+        <v>19529</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00968958300642885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004219395850333197</v>
+        <v>0.004762278957783988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01769666651885506</v>
+        <v>0.01886368881476154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3431,19 +3431,19 @@
         <v>19786</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11966</v>
+        <v>12019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30547</v>
+        <v>31019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01773080041204788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01072361045429872</v>
+        <v>0.0107708966175676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02737481554576755</v>
+        <v>0.02779725373658757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -3452,19 +3452,19 @@
         <v>29817</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20248</v>
+        <v>19770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43960</v>
+        <v>43290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01386087681190593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009412759642785706</v>
+        <v>0.00919035420576949</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0204357075107819</v>
+        <v>0.02012419108761895</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>584350</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>553179</v>
+        <v>554462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>617476</v>
+        <v>615966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5997487997231767</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5677562449043724</v>
+        <v>0.5690725880407791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6337471871112491</v>
+        <v>0.6321975227045296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>558</v>
@@ -3577,19 +3577,19 @@
         <v>595057</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>560812</v>
+        <v>561357</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>632809</v>
+        <v>629252</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5443349817902035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.513008780037134</v>
+        <v>0.5135069556396987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5788691689520074</v>
+        <v>0.575614888541393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1118</v>
@@ -3598,19 +3598,19 @@
         <v>1179407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1133337</v>
+        <v>1133156</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1225996</v>
+        <v>1226386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5704490680612859</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5481657691484141</v>
+        <v>0.5480786643996116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5929829233021817</v>
+        <v>0.5931711542662986</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>273517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>245040</v>
+        <v>246385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301936</v>
+        <v>302426</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2807250985856634</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2514974656825855</v>
+        <v>0.2528772990758148</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3098919778125784</v>
+        <v>0.3103952184447957</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -3648,19 +3648,19 @@
         <v>338747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308041</v>
+        <v>307226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>370378</v>
+        <v>372717</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.309872174859549</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2817837299456055</v>
+        <v>0.2810384175579218</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3388076734095511</v>
+        <v>0.3409467697634739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>572</v>
@@ -3669,19 +3669,19 @@
         <v>612264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>568543</v>
+        <v>569134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653780</v>
+        <v>655028</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2961364444450388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2749898745201179</v>
+        <v>0.2752754664048883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3162164847273176</v>
+        <v>0.3168201515271722</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>94649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76192</v>
+        <v>77556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115973</v>
+        <v>117868</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09714300197798355</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07820025164086321</v>
+        <v>0.07959941207466165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.11902945044941</v>
+        <v>0.120973978045483</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -3719,19 +3719,19 @@
         <v>115339</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95641</v>
+        <v>96270</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138391</v>
+        <v>136533</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1055078011685011</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08748872344295097</v>
+        <v>0.08806426407470283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1265946778425237</v>
+        <v>0.124894940771614</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -3740,19 +3740,19 @@
         <v>209988</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180147</v>
+        <v>180775</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>237245</v>
+        <v>238763</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1015658405556144</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08713248683042428</v>
+        <v>0.08743637730597052</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1147492892281724</v>
+        <v>0.1154835255508716</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>15313</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8727</v>
+        <v>8819</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25018</v>
+        <v>24391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01571699699430004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008956904968686801</v>
+        <v>0.009051171762997731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02567769681402191</v>
+        <v>0.02503395739205742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3790,19 +3790,19 @@
         <v>36134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25675</v>
+        <v>25559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50554</v>
+        <v>50484</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03305402012097483</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02348623164569539</v>
+        <v>0.02338017030285918</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04624490161936382</v>
+        <v>0.04618091942531598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -3811,19 +3811,19 @@
         <v>51448</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38403</v>
+        <v>38143</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68400</v>
+        <v>69502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02488384642600659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01857434116089128</v>
+        <v>0.01844859363397586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03308349456465112</v>
+        <v>0.03361620355285884</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>6495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2793</v>
+        <v>2307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14006</v>
+        <v>13410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006666102718876332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002866200503763566</v>
+        <v>0.002367294318274188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01437524046722817</v>
+        <v>0.01376337111249147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3861,19 +3861,19 @@
         <v>7905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3151</v>
+        <v>3050</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17154</v>
+        <v>16691</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007231022060771548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002882181718107789</v>
+        <v>0.002789722971587867</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01569210674380474</v>
+        <v>0.0152686497320684</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -3882,19 +3882,19 @@
         <v>14400</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7769</v>
+        <v>7473</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24738</v>
+        <v>24471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006964800512054245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003757612206269698</v>
+        <v>0.003614346679645105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01196523033905862</v>
+        <v>0.01183610403951183</v>
       </c>
     </row>
     <row r="15">
@@ -3986,19 +3986,19 @@
         <v>539366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>507948</v>
+        <v>508433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>569611</v>
+        <v>569739</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6115407333460751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5759185216750902</v>
+        <v>0.5764682672976724</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6458330557182534</v>
+        <v>0.6459784595990227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>491</v>
@@ -4007,19 +4007,19 @@
         <v>520535</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>488916</v>
+        <v>488891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>550853</v>
+        <v>551729</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5943562945572444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.558253211760432</v>
+        <v>0.5582242728586224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6289742183481397</v>
+        <v>0.6299748980661172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1002</v>
@@ -4028,19 +4028,19 @@
         <v>1059900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1016367</v>
+        <v>1016921</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1097420</v>
+        <v>1104678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6029787361092446</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5782126884518237</v>
+        <v>0.578527586678549</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.624323730499555</v>
+        <v>0.6284527751800338</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>248597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>221425</v>
+        <v>220204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276052</v>
+        <v>277445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2818625012011485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2510547827848942</v>
+        <v>0.2496706786790042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3129920314868362</v>
+        <v>0.3145713710068243</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>250</v>
@@ -4078,19 +4078,19 @@
         <v>269158</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>239561</v>
+        <v>240361</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>298827</v>
+        <v>296448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3073292594469935</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2735350902568866</v>
+        <v>0.2744484820569542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.341206030817274</v>
+        <v>0.3384901305766541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>477</v>
@@ -4099,19 +4099,19 @@
         <v>517754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>481170</v>
+        <v>478333</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>557459</v>
+        <v>560439</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2945510921066413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2737381934667615</v>
+        <v>0.272124546937877</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3171393509305298</v>
+        <v>0.3188343852036072</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>77340</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60871</v>
+        <v>61319</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95330</v>
+        <v>96221</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08768950527474773</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06901651564757579</v>
+        <v>0.06952476041096729</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1080862481488777</v>
+        <v>0.1090961841598667</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -4149,19 +4149,19 @@
         <v>74989</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>59847</v>
+        <v>59212</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92686</v>
+        <v>94529</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0856235456244113</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0683348388377841</v>
+        <v>0.0676097435667169</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1058309648199319</v>
+        <v>0.1079355044595643</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -4170,19 +4170,19 @@
         <v>152329</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130328</v>
+        <v>128560</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>180464</v>
+        <v>178498</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0866601588390014</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07414373250588566</v>
+        <v>0.07313808926007598</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1026663973315889</v>
+        <v>0.1015475054581922</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>11392</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6192</v>
+        <v>5833</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19342</v>
+        <v>19198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01291638158218787</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007020285097053273</v>
+        <v>0.006613337764680881</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02193074644698718</v>
+        <v>0.02176719832857913</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4220,19 +4220,19 @@
         <v>7962</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3843</v>
+        <v>3091</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15074</v>
+        <v>15041</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009090714149111051</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004387450039944289</v>
+        <v>0.003529314278884994</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01721181893505031</v>
+        <v>0.01717451002763959</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -4241,19 +4241,19 @@
         <v>19354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12281</v>
+        <v>12492</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29598</v>
+        <v>29538</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01101027604138161</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006986733712232321</v>
+        <v>0.007106817223102973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.016838166531695</v>
+        <v>0.01680419647761162</v>
       </c>
     </row>
     <row r="20">
@@ -4270,19 +4270,19 @@
         <v>5284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1935</v>
+        <v>2011</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11438</v>
+        <v>11481</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005990878595840816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002194403735338359</v>
+        <v>0.002279904600185376</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01296894492206215</v>
+        <v>0.01301766620814264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4291,19 +4291,19 @@
         <v>3153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8282</v>
+        <v>8622</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003600186222239801</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001120774740511996</v>
+        <v>0.001128150598629948</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009456186572058651</v>
+        <v>0.009844696525330631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -4312,19 +4312,19 @@
         <v>8437</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4033</v>
+        <v>3968</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16288</v>
+        <v>15644</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004799736903731099</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00229425363045085</v>
+        <v>0.002257551077817135</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009265991267473819</v>
+        <v>0.008900093375068597</v>
       </c>
     </row>
     <row r="21">
@@ -4416,19 +4416,19 @@
         <v>321266</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>297347</v>
+        <v>297949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>344626</v>
+        <v>344045</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6443798131932392</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5964048437340317</v>
+        <v>0.5976126344707033</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6912351656099355</v>
+        <v>0.6900687672529755</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>277</v>
@@ -4437,19 +4437,19 @@
         <v>303062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278938</v>
+        <v>282830</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>322193</v>
+        <v>324098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6709421184304192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6175355558642674</v>
+        <v>0.6261508404120092</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7132954044918858</v>
+        <v>0.7175138083711153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>577</v>
@@ -4458,19 +4458,19 @@
         <v>624328</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>592566</v>
+        <v>592350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>655427</v>
+        <v>654689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6570058967024461</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.623582003502738</v>
+        <v>0.623354716442979</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6897327464174259</v>
+        <v>0.6889566694269941</v>
       </c>
     </row>
     <row r="23">
@@ -4487,19 +4487,19 @@
         <v>117773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99481</v>
+        <v>99408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>140792</v>
+        <v>142678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2362228578115978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1995336712240725</v>
+        <v>0.1993881335352688</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.282393428006649</v>
+        <v>0.2861771202057893</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>98</v>
@@ -4508,19 +4508,19 @@
         <v>108882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>91002</v>
+        <v>90760</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>130082</v>
+        <v>130211</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2410518955478002</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2014683896152601</v>
+        <v>0.2009316195806187</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2879860124495384</v>
+        <v>0.28827148923882</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>203</v>
@@ -4529,19 +4529,19 @@
         <v>226655</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>199875</v>
+        <v>200582</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>254517</v>
+        <v>259695</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2385182848531129</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2103367807432234</v>
+        <v>0.2110809953652552</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2678386904036315</v>
+        <v>0.2732873572906781</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>51491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37311</v>
+        <v>39025</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69092</v>
+        <v>68777</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1032775555061731</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0748358448608713</v>
+        <v>0.07827385663029611</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1385815948251708</v>
+        <v>0.1379491507265202</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -4579,19 +4579,19 @@
         <v>33075</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22796</v>
+        <v>22226</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45109</v>
+        <v>46857</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07322348071744528</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05046712821438523</v>
+        <v>0.04920577729242605</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0998654806905928</v>
+        <v>0.103735721004217</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -4600,19 +4600,19 @@
         <v>84565</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68269</v>
+        <v>68080</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106737</v>
+        <v>106018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08899169986653231</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07184199180490669</v>
+        <v>0.07164392064918663</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1123239022517458</v>
+        <v>0.1115675170099802</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>4894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>979</v>
+        <v>1845</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12777</v>
+        <v>13919</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009816964392907896</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001963038837899036</v>
+        <v>0.003700998387379762</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02562745896649579</v>
+        <v>0.0279190654843215</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4650,19 +4650,19 @@
         <v>3767</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11846</v>
+        <v>11099</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008340706756613539</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001983693887717499</v>
+        <v>0.002016897912337811</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02622564365826689</v>
+        <v>0.02457202341163871</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4671,19 +4671,19 @@
         <v>8662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3798</v>
+        <v>3645</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19231</v>
+        <v>17439</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009115242459117791</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003996304636503491</v>
+        <v>0.003835713933167337</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02023797771521211</v>
+        <v>0.01835199423402839</v>
       </c>
     </row>
     <row r="26">
@@ -4700,19 +4700,19 @@
         <v>3142</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9073</v>
+        <v>8660</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006302809096082026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001700610830646942</v>
+        <v>0.001682441191764918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01819723974613014</v>
+        <v>0.01736937634674054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4721,19 +4721,19 @@
         <v>2910</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7771</v>
+        <v>8689</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006441798547721853</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002078826540308354</v>
+        <v>0.0020923788120445</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01720462499818489</v>
+        <v>0.01923597612918733</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -4742,19 +4742,19 @@
         <v>6052</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2719</v>
+        <v>2279</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13232</v>
+        <v>12760</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006368876118790844</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00286080746484981</v>
+        <v>0.002398649681272407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01392429318505426</v>
+        <v>0.01342797690102617</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>2038602</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1975875</v>
+        <v>1973520</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2097793</v>
+        <v>2093294</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6013334069478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.582830668250907</v>
+        <v>0.5821360356429611</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6187930495847268</v>
+        <v>0.6174661142145811</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1856</v>
@@ -4867,19 +4867,19 @@
         <v>1994628</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1932939</v>
+        <v>1937204</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2054900</v>
+        <v>2054043</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5640018757862701</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5465588020333948</v>
+        <v>0.5477648394674233</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5810443902414631</v>
+        <v>0.5808021439589487</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3782</v>
@@ -4888,19 +4888,19 @@
         <v>4033230</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3949420</v>
+        <v>3954578</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4116188</v>
+        <v>4120342</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5822730588034851</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5701735146510435</v>
+        <v>0.5709182674376261</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5942496616289938</v>
+        <v>0.5948493718545577</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>885665</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>833486</v>
+        <v>834761</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>939952</v>
+        <v>945661</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2612476072171013</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2458561610594113</v>
+        <v>0.2462321885871211</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2772607151185861</v>
+        <v>0.2789449883453837</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>992</v>
@@ -4938,19 +4938,19 @@
         <v>1069872</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1011485</v>
+        <v>1013631</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1133147</v>
+        <v>1128571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.302517487460688</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2860079635373152</v>
+        <v>0.2866146956305194</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3204091541358728</v>
+        <v>0.3191151640890934</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1814</v>
@@ -4959,19 +4959,19 @@
         <v>1955537</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1880600</v>
+        <v>1876099</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2031429</v>
+        <v>2034034</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2823187570157346</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2715002543119322</v>
+        <v>0.2708504442718163</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2932752329365535</v>
+        <v>0.2936513437578379</v>
       </c>
     </row>
     <row r="30">
@@ -4988,7 +4988,7 @@
         <v>359107</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>323445</v>
+        <v>323716</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>400073</v>
@@ -4997,10 +4997,10 @@
         <v>0.1059269897304606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09540763166900913</v>
+        <v>0.09548764556193694</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.118010850439302</v>
+        <v>0.1180108481500018</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>331</v>
@@ -5009,19 +5009,19 @@
         <v>361159</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>325159</v>
+        <v>323932</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>402512</v>
+        <v>398898</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1021215710391088</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0919420660457074</v>
+        <v>0.09159517787101525</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1138143709880267</v>
+        <v>0.1127926869171217</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>659</v>
@@ -5030,19 +5030,19 @@
         <v>720266</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>669911</v>
+        <v>666951</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>778254</v>
+        <v>773004</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1039840583039888</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09671429261979939</v>
+        <v>0.0962870173747247</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1123556440802174</v>
+        <v>0.111597698067907</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>81810</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>64962</v>
+        <v>64271</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>103640</v>
+        <v>101750</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02413168805669991</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01916212879878439</v>
+        <v>0.01895830878974132</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03057116743104614</v>
+        <v>0.03001341595272954</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>69</v>
@@ -5080,19 +5080,19 @@
         <v>77150</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>59604</v>
+        <v>59003</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>96981</v>
+        <v>95814</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02181500023156225</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01685352083188238</v>
+        <v>0.01668372096998946</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02742242065945005</v>
+        <v>0.02709247140108485</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>145</v>
@@ -5101,19 +5101,19 @@
         <v>158960</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>134836</v>
+        <v>134367</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>186420</v>
+        <v>186780</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02294885748118034</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01946606993095762</v>
+        <v>0.01939843651424891</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02691322876728742</v>
+        <v>0.02696528099044179</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>24952</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16060</v>
+        <v>15855</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37772</v>
+        <v>37457</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007360308047938214</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004737242929433762</v>
+        <v>0.004676828915703348</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01114179044329508</v>
+        <v>0.01104888333043465</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -5151,19 +5151,19 @@
         <v>33753</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22822</v>
+        <v>22974</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>47887</v>
+        <v>48525</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009544065482370828</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006453270064824113</v>
+        <v>0.00649626385242647</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01354042140358763</v>
+        <v>0.01372098814219022</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>53</v>
@@ -5172,19 +5172,19 @@
         <v>58706</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43871</v>
+        <v>43610</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>74557</v>
+        <v>77315</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008475268395611121</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006333572375062145</v>
+        <v>0.006295962862529445</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01076377143932788</v>
+        <v>0.01116181767071605</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>494121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>463149</v>
+        <v>458997</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>529262</v>
+        <v>526846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4388882732072651</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4113780662226154</v>
+        <v>0.4076901199250865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4701008848998087</v>
+        <v>0.467955164234283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>529</v>
@@ -5537,19 +5537,19 @@
         <v>551221</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>513958</v>
+        <v>517018</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>589150</v>
+        <v>584782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4386807734534651</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4090250032266298</v>
+        <v>0.411460692705443</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4688659800215605</v>
+        <v>0.4653892507399847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>994</v>
@@ -5558,19 +5558,19 @@
         <v>1045343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>995358</v>
+        <v>997107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1090297</v>
+        <v>1094602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.438778831761786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4177980151049961</v>
+        <v>0.4185321906695673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4576480140347455</v>
+        <v>0.4594551522966577</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>367649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>337562</v>
+        <v>334407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>400422</v>
+        <v>400499</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.326552950682763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2998287564104603</v>
+        <v>0.2970264634669887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3556624872605081</v>
+        <v>0.3557312935212524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>410</v>
@@ -5608,19 +5608,19 @@
         <v>435328</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>403155</v>
+        <v>398921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468521</v>
+        <v>467331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3464487764591802</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3208442812510791</v>
+        <v>0.3174747343214634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3728648244589955</v>
+        <v>0.3719183339758879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>760</v>
@@ -5629,19 +5629,19 @@
         <v>802977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757454</v>
+        <v>756655</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>855803</v>
+        <v>849120</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3370465917213443</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3179384780066161</v>
+        <v>0.317603213221167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3592200420872366</v>
+        <v>0.356415216773028</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>212280</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>185898</v>
+        <v>183999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>240466</v>
+        <v>237582</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1885508123670516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1651182614088745</v>
+        <v>0.1634318243560781</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2135865301989041</v>
+        <v>0.2110251522545908</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>189</v>
@@ -5679,19 +5679,19 @@
         <v>206278</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>179788</v>
+        <v>178442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>231930</v>
+        <v>232533</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1641632362474276</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1430816798720734</v>
+        <v>0.1420100660194837</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1845781188921055</v>
+        <v>0.1850579279867071</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>389</v>
@@ -5700,19 +5700,19 @@
         <v>418558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>381451</v>
+        <v>379897</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>460491</v>
+        <v>455675</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1756880906848106</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1601127020612343</v>
+        <v>0.1594604653421839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.193289380522992</v>
+        <v>0.1912681409601076</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>38005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26126</v>
+        <v>26999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51828</v>
+        <v>53575</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03375643586257122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02320582869453275</v>
+        <v>0.02398091372123883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0460345760070469</v>
+        <v>0.04758618859730784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -5750,19 +5750,19 @@
         <v>50894</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37905</v>
+        <v>38020</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66129</v>
+        <v>67277</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04050347935586816</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0301663914850498</v>
+        <v>0.03025789500278428</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0526278512308087</v>
+        <v>0.0535413055571643</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -5771,19 +5771,19 @@
         <v>88899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70628</v>
+        <v>71588</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108610</v>
+        <v>108971</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03731502414566098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02964567908352889</v>
+        <v>0.03004883325784989</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04558852996305241</v>
+        <v>0.04574013319768165</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>13793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7605</v>
+        <v>7463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23565</v>
+        <v>22099</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0122515278803491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006755268970381156</v>
+        <v>0.006628725356785079</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02093115573704769</v>
+        <v>0.01962899140929455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -5821,19 +5821,19 @@
         <v>12821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6564</v>
+        <v>6560</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23147</v>
+        <v>22404</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01020373448405895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005224065849834023</v>
+        <v>0.005220751691971478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01842097775805249</v>
+        <v>0.0178298926905932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -5842,19 +5842,19 @@
         <v>26615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17077</v>
+        <v>17624</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39655</v>
+        <v>39050</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01117146168639816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007167818621327541</v>
+        <v>0.007397520759531504</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01664512746283487</v>
+        <v>0.01639124203845538</v>
       </c>
     </row>
     <row r="9">
@@ -5946,19 +5946,19 @@
         <v>458059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>425575</v>
+        <v>426494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>486306</v>
+        <v>485658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5047884282096541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.468990314812019</v>
+        <v>0.4700027544798336</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5359167389339902</v>
+        <v>0.5352024747165158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>450</v>
@@ -5967,19 +5967,19 @@
         <v>471178</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>440726</v>
+        <v>440696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>500977</v>
+        <v>504046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4712648603691403</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4408069555251378</v>
+        <v>0.4407768909924153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5010691688128144</v>
+        <v>0.5041391163923286</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>894</v>
@@ -5988,19 +5988,19 @@
         <v>929237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>886346</v>
+        <v>887979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>973096</v>
+        <v>976463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4872146915170443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4647263184043077</v>
+        <v>0.4655821693027019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5102106416886307</v>
+        <v>0.5119759694013689</v>
       </c>
     </row>
     <row r="11">
@@ -6017,19 +6017,19 @@
         <v>284636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257134</v>
+        <v>259782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315086</v>
+        <v>315790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3136735835210263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2833659186587938</v>
+        <v>0.2862839379005172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3472302727300376</v>
+        <v>0.3480060739389154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -6038,19 +6038,19 @@
         <v>338606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309918</v>
+        <v>309941</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>369384</v>
+        <v>370688</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3386680944278108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.309974707060249</v>
+        <v>0.3099975707028949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3694515525987493</v>
+        <v>0.3707563509116934</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>601</v>
@@ -6059,19 +6059,19 @@
         <v>623242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>582196</v>
+        <v>583422</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664424</v>
+        <v>666088</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3267762149451659</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3052550268194433</v>
+        <v>0.3058980172464638</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3483686009166827</v>
+        <v>0.3492409759824683</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>150807</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>130519</v>
+        <v>126308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175947</v>
+        <v>173461</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1661917183930528</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1438344106304615</v>
+        <v>0.1391939051287393</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1938965091530038</v>
+        <v>0.1911567902102493</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>157</v>
@@ -6109,19 +6109,19 @@
         <v>170995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>146588</v>
+        <v>146142</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>194605</v>
+        <v>196033</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1710268292310352</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1466151562420418</v>
+        <v>0.1461688987912834</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1946411688333962</v>
+        <v>0.1960693762695183</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>301</v>
@@ -6130,19 +6130,19 @@
         <v>321802</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>289478</v>
+        <v>288402</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>354566</v>
+        <v>357158</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1687263819214257</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1517782547794384</v>
+        <v>0.1512140083069987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.185904969940163</v>
+        <v>0.1872636754904466</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>13028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6879</v>
+        <v>6721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22218</v>
+        <v>23873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01435690193618917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007581277094918046</v>
+        <v>0.00740719694785502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02448417030019494</v>
+        <v>0.02630811906546493</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -6180,19 +6180,19 @@
         <v>12480</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6401</v>
+        <v>7079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20696</v>
+        <v>21186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0124823678305395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006402018573281178</v>
+        <v>0.007080799608725101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02070006881569849</v>
+        <v>0.02119016165308624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -6201,19 +6201,19 @@
         <v>25508</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16904</v>
+        <v>15659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36817</v>
+        <v>36754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01337423299860096</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008863252024691183</v>
+        <v>0.008210095057129075</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0193036601841011</v>
+        <v>0.01927098027170937</v>
       </c>
     </row>
     <row r="14">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4516</v>
+        <v>3616</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0009893679400776732</v>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004976810508088847</v>
+        <v>0.003984423897262926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6251,19 +6251,19 @@
         <v>6557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2392</v>
+        <v>2230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14480</v>
+        <v>13755</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.00655784814147419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002392291631825511</v>
+        <v>0.00223024920766921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0144826395981178</v>
+        <v>0.01375749944532451</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -6272,19 +6272,19 @@
         <v>7454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3306</v>
+        <v>2876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15241</v>
+        <v>14549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003908478617763024</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001733278422039431</v>
+        <v>0.001507846997338812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007991214317837851</v>
+        <v>0.007628093655432701</v>
       </c>
     </row>
     <row r="15">
@@ -6376,19 +6376,19 @@
         <v>421435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>392804</v>
+        <v>391794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>451514</v>
+        <v>449451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5161649962422472</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4810984867292826</v>
+        <v>0.4798611456306438</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5530047464561865</v>
+        <v>0.5504786415798834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>388</v>
@@ -6397,19 +6397,19 @@
         <v>401845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>374232</v>
+        <v>371767</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>428931</v>
+        <v>428337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5218106572211485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4859546802425109</v>
+        <v>0.4827532464302265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5569832082977538</v>
+        <v>0.556211147876673</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>793</v>
@@ -6418,19 +6418,19 @@
         <v>823280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>782349</v>
+        <v>781578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>862762</v>
+        <v>862007</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5189053126654158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4931074139300535</v>
+        <v>0.4926212612212418</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5437905920583234</v>
+        <v>0.5433148321911111</v>
       </c>
     </row>
     <row r="17">
@@ -6447,19 +6447,19 @@
         <v>282644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>255579</v>
+        <v>254793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>310369</v>
+        <v>311098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3461761660644472</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3130277826857678</v>
+        <v>0.3120650194223489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3801331758402048</v>
+        <v>0.3810267840064693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>231</v>
@@ -6468,19 +6468,19 @@
         <v>248016</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220012</v>
+        <v>221933</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>274888</v>
+        <v>274172</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.322058757173655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2856937030011503</v>
+        <v>0.2881883306452004</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.356951958069231</v>
+        <v>0.356022059481753</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>500</v>
@@ -6489,19 +6489,19 @@
         <v>530660</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>493530</v>
+        <v>496573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>571580</v>
+        <v>569714</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3344699492167308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3110673788861341</v>
+        <v>0.3129853370550785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3602614391938672</v>
+        <v>0.3590851353812217</v>
       </c>
     </row>
     <row r="18">
@@ -6518,19 +6518,19 @@
         <v>101114</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82748</v>
+        <v>82612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123396</v>
+        <v>123654</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1238425162112265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.101347660248597</v>
+        <v>0.1011819799593777</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1511323985226546</v>
+        <v>0.1514489184194083</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>98</v>
@@ -6539,19 +6539,19 @@
         <v>108700</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90066</v>
+        <v>89452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128386</v>
+        <v>131707</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1411514315528871</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1169539068136514</v>
+        <v>0.1161570127831208</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1667140263431134</v>
+        <v>0.1710266289529555</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -6560,19 +6560,19 @@
         <v>209814</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>182951</v>
+        <v>183208</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>239582</v>
+        <v>239653</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1322439957111907</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1153120894466687</v>
+        <v>0.1154742804660032</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1510064623318276</v>
+        <v>0.1510510729718375</v>
       </c>
     </row>
     <row r="19">
@@ -6589,19 +6589,19 @@
         <v>8714</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4545</v>
+        <v>4021</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16813</v>
+        <v>17313</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0106728530344112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0055669547719589</v>
+        <v>0.004924885992801655</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02059178645210237</v>
+        <v>0.02120410195402008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6610,19 +6610,19 @@
         <v>11535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5966</v>
+        <v>5815</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21130</v>
+        <v>21498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01497915405230936</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007747473918348903</v>
+        <v>0.007550591344459689</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02743812030581566</v>
+        <v>0.02791544111708922</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -6631,19 +6631,19 @@
         <v>20249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11392</v>
+        <v>12792</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31562</v>
+        <v>31882</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01276306487082054</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007179988028253086</v>
+        <v>0.008062487659653639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01989310425452687</v>
+        <v>0.02009507534861465</v>
       </c>
     </row>
     <row r="20">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8454</v>
+        <v>8913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003143468447667812</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01035413008783165</v>
+        <v>0.01091702470523456</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8781</v>
+        <v>10080</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001617677535842165</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005534796448358021</v>
+        <v>0.006353141090980131</v>
       </c>
     </row>
     <row r="21">
@@ -6798,19 +6798,19 @@
         <v>321934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>299682</v>
+        <v>299160</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>343058</v>
+        <v>345328</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.636989367322921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5929617903979019</v>
+        <v>0.5919288865999294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6787872002314862</v>
+        <v>0.6832772631947183</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -6819,19 +6819,19 @@
         <v>323549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>301739</v>
+        <v>300582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>344252</v>
+        <v>344393</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6635613913692956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6188321558669967</v>
+        <v>0.6164593933002408</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7060209137729102</v>
+        <v>0.7063115015239325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>602</v>
@@ -6840,19 +6840,19 @@
         <v>645483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>612868</v>
+        <v>615999</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>675219</v>
+        <v>673714</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6500371521882159</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6171923063579625</v>
+        <v>0.6203454226596568</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6799828257297323</v>
+        <v>0.6784669298949334</v>
       </c>
     </row>
     <row r="23">
@@ -6869,19 +6869,19 @@
         <v>131777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111146</v>
+        <v>111422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>151508</v>
+        <v>153319</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2607388496627648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2199166592003348</v>
+        <v>0.2204626572776431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2997783560353315</v>
+        <v>0.3033619069875934</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>108</v>
@@ -6890,19 +6890,19 @@
         <v>118015</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99396</v>
+        <v>100368</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>137483</v>
+        <v>139897</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2420345376662843</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2038489427245905</v>
+        <v>0.2058438831373973</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2819616569261725</v>
+        <v>0.2869124567966819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>229</v>
@@ -6911,19 +6911,19 @@
         <v>249792</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>219711</v>
+        <v>223026</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>280893</v>
+        <v>279337</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2515543841302369</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2212615826454643</v>
+        <v>0.2245993142436768</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2828750566293668</v>
+        <v>0.281307351244218</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>44664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34078</v>
+        <v>32904</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61476</v>
+        <v>59857</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08837378188604963</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06742791789675809</v>
+        <v>0.06510558984320301</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1216391007891999</v>
+        <v>0.1184351314595977</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -6961,19 +6961,19 @@
         <v>36095</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25944</v>
+        <v>25240</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49168</v>
+        <v>49361</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07402699918954915</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05320911920176447</v>
+        <v>0.05176422408508816</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1008372776654474</v>
+        <v>0.1012347740966059</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>77</v>
@@ -6982,19 +6982,19 @@
         <v>80759</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>63061</v>
+        <v>64530</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>98295</v>
+        <v>98689</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08132901428361278</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06350603163278944</v>
+        <v>0.06498547601557214</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09898820859571475</v>
+        <v>0.09938497527196551</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>5137</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11582</v>
+        <v>11585</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0101648345723178</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003915549122695696</v>
+        <v>0.003906314930643901</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02291633452310351</v>
+        <v>0.02292295653776457</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7032,19 +7032,19 @@
         <v>7395</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2957</v>
+        <v>2896</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15556</v>
+        <v>15820</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01516634209261452</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006063584964998435</v>
+        <v>0.005940034081257633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03190298439260782</v>
+        <v>0.03244524902061422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -7053,19 +7053,19 @@
         <v>12532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6188</v>
+        <v>6268</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22225</v>
+        <v>23057</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01262074813061858</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006231976622099355</v>
+        <v>0.006312285463606779</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0223819141694813</v>
+        <v>0.0232198472255812</v>
       </c>
     </row>
     <row r="26">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6223</v>
+        <v>6066</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003733166555946763</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0123131460090317</v>
+        <v>0.01200331674576255</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8437</v>
+        <v>8796</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005210729682256372</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01730304623603631</v>
+        <v>0.01803927985259235</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -7124,19 +7124,19 @@
         <v>4427</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1067</v>
+        <v>1215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10411</v>
+        <v>11120</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004458701267315904</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001074452757036105</v>
+        <v>0.001223600506100066</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01048476650688593</v>
+        <v>0.01119856398559123</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>1695550</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1634818</v>
+        <v>1638511</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1756526</v>
+        <v>1754885</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5053575148656702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.487256534357334</v>
+        <v>0.4883572416901685</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5235314979090517</v>
+        <v>0.5230423528078196</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1669</v>
@@ -7249,19 +7249,19 @@
         <v>1747793</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1690166</v>
+        <v>1692094</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1807731</v>
+        <v>1808465</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4973727851573546</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4809738996241115</v>
+        <v>0.4815223458754193</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5144293671030578</v>
+        <v>0.5146384306300359</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3283</v>
@@ -7270,19 +7270,19 @@
         <v>3443343</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3361586</v>
+        <v>3361566</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3521739</v>
+        <v>3528751</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5012727971961453</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4893708158938768</v>
+        <v>0.48936793777726</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5126855265456089</v>
+        <v>0.5137062896201071</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>1066706</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1014777</v>
+        <v>1014222</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1126634</v>
+        <v>1121730</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3179310775342742</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3024536542981806</v>
+        <v>0.3022881658159307</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3357924092040168</v>
+        <v>0.3343307678894625</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1070</v>
@@ -7320,19 +7320,19 @@
         <v>1139965</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1081947</v>
+        <v>1080680</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1197557</v>
+        <v>1200291</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3244019305529933</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3078916555579498</v>
+        <v>0.3075312222376881</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.340791226122506</v>
+        <v>0.3415690679345133</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2090</v>
@@ -7341,19 +7341,19 @@
         <v>2206671</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2133302</v>
+        <v>2130673</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2282634</v>
+        <v>2284083</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.32124134708979</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.310560557155282</v>
+        <v>0.310177725704729</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3322999093149425</v>
+        <v>0.3325108662410543</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>508865</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>468235</v>
+        <v>469502</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>551355</v>
+        <v>549960</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1516668213524974</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1395571315773432</v>
+        <v>0.1399347120597825</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1643310095309114</v>
+        <v>0.1639150819833968</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>479</v>
@@ -7391,19 +7391,19 @@
         <v>522069</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>477048</v>
+        <v>479924</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>564463</v>
+        <v>568518</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1485661607334093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1357545871001619</v>
+        <v>0.1365727739719931</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1606304578742962</v>
+        <v>0.1617841441070775</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>960</v>
@@ -7412,19 +7412,19 @@
         <v>1030934</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>970356</v>
+        <v>962704</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1092703</v>
+        <v>1090549</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1500806282463239</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1412618727763731</v>
+        <v>0.1401478782867821</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1590728530626319</v>
+        <v>0.1587593047483729</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>64884</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49292</v>
+        <v>50617</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>83576</v>
+        <v>83324</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01933859836706678</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01469133015985549</v>
+        <v>0.01508640927685293</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02490981909212254</v>
+        <v>0.02483457528621671</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>74</v>
@@ -7462,19 +7462,19 @@
         <v>82305</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64717</v>
+        <v>66187</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>104976</v>
+        <v>103681</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02342164975733417</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01841653347494467</v>
+        <v>0.01883497015917375</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02987324515670674</v>
+        <v>0.02950468736542713</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>136</v>
@@ -7483,19 +7483,19 @@
         <v>147189</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>123497</v>
+        <v>123219</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>171801</v>
+        <v>173689</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02142734936661961</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01797837256763557</v>
+        <v>0.01793792112167021</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02501035040181167</v>
+        <v>0.02528524436968261</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>19144</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10727</v>
+        <v>11920</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27965</v>
+        <v>29190</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005705987880491569</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003197208727924445</v>
+        <v>0.003552708210919278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008334949239458015</v>
+        <v>0.008700059508262635</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -7533,19 +7533,19 @@
         <v>21919</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13403</v>
+        <v>12546</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>32872</v>
+        <v>34520</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006237473798908671</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003814038296693155</v>
+        <v>0.003570235110803913</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00935458881878513</v>
+        <v>0.009823386390512043</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -7554,19 +7554,19 @@
         <v>41063</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28996</v>
+        <v>29103</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54440</v>
+        <v>56454</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005977878101121213</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004221153876500523</v>
+        <v>0.004236714998591291</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007925166561656432</v>
+        <v>0.008218462936545047</v>
       </c>
     </row>
     <row r="33">
@@ -7898,19 +7898,19 @@
         <v>230773</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205533</v>
+        <v>206662</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>254272</v>
+        <v>256894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4655889864239188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4146668828570435</v>
+        <v>0.4169439076105095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5129984894170986</v>
+        <v>0.518288492874986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>388</v>
@@ -7919,19 +7919,19 @@
         <v>300311</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>276670</v>
+        <v>278351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>323843</v>
+        <v>322516</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4835328424696854</v>
+        <v>0.4835328424696855</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4454684964452512</v>
+        <v>0.4481750143361226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5214217780477726</v>
+        <v>0.5192854736236137</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>588</v>
@@ -7940,19 +7940,19 @@
         <v>531084</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>500093</v>
+        <v>498713</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>569105</v>
+        <v>567460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4755685183059668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4478172873905169</v>
+        <v>0.4465811579317045</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5096147673193459</v>
+        <v>0.5081423437456203</v>
       </c>
     </row>
     <row r="5">
@@ -7969,19 +7969,19 @@
         <v>116251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97397</v>
+        <v>97795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138554</v>
+        <v>139225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2345390754032276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1964997107209585</v>
+        <v>0.1973024185460008</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2795357790726078</v>
+        <v>0.2808877252778714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -7990,19 +7990,19 @@
         <v>146775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130487</v>
+        <v>129540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167117</v>
+        <v>166992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2363238763452977</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2100975576556218</v>
+        <v>0.2085734679629732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2690773259184465</v>
+        <v>0.2688760980012071</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>317</v>
@@ -8011,19 +8011,19 @@
         <v>263026</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234832</v>
+        <v>235511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292466</v>
+        <v>292962</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2355316980512843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2102844468748615</v>
+        <v>0.2108927381119126</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2618938834746815</v>
+        <v>0.2623381610193486</v>
       </c>
     </row>
     <row r="6">
@@ -8040,19 +8040,19 @@
         <v>86294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69098</v>
+        <v>69635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105818</v>
+        <v>104763</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1741003102620534</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1394064887565306</v>
+        <v>0.1404891647138776</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2134893172051567</v>
+        <v>0.2113609309706106</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -8061,19 +8061,19 @@
         <v>100750</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83832</v>
+        <v>85127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118031</v>
+        <v>116978</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1622184658428909</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1349792600466029</v>
+        <v>0.1370629514361721</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.190042888599573</v>
+        <v>0.1883470981635539</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>233</v>
@@ -8082,19 +8082,19 @@
         <v>187044</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>162836</v>
+        <v>163423</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>213810</v>
+        <v>211807</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1674921851803467</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1458140224823599</v>
+        <v>0.1463400872393492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.191459976106769</v>
+        <v>0.1896663195797474</v>
       </c>
     </row>
     <row r="7">
@@ -8111,19 +8111,19 @@
         <v>45812</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34360</v>
+        <v>33351</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64302</v>
+        <v>63182</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09242632898181848</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06932128569857922</v>
+        <v>0.06728669949660199</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1297299223278987</v>
+        <v>0.1274715407561688</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -8132,19 +8132,19 @@
         <v>49113</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39294</v>
+        <v>39428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62310</v>
+        <v>61223</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07907704968094374</v>
+        <v>0.07907704968094376</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06326797014658295</v>
+        <v>0.06348284070945144</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.100326302452623</v>
+        <v>0.09857556551081341</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -8153,19 +8153,19 @@
         <v>94925</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78579</v>
+        <v>79138</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115497</v>
+        <v>116974</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08500208538302567</v>
+        <v>0.08500208538302569</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0703647658700341</v>
+        <v>0.07086545573267555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1034239956941391</v>
+        <v>0.1047466607822311</v>
       </c>
     </row>
     <row r="8">
@@ -8182,19 +8182,19 @@
         <v>16528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10489</v>
+        <v>9630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27117</v>
+        <v>25725</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03334529892898169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02116171642873555</v>
+        <v>0.01942884550891283</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05470931900431983</v>
+        <v>0.05190070519228229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -8203,19 +8203,19 @@
         <v>24127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16222</v>
+        <v>16390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36506</v>
+        <v>37980</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0388477656611822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02611977780930125</v>
+        <v>0.02639016135759522</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05877908302513923</v>
+        <v>0.06115202235376451</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -8224,19 +8224,19 @@
         <v>40655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29914</v>
+        <v>29536</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>55255</v>
+        <v>56540</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03640551307937654</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0267866420883043</v>
+        <v>0.02644873319490166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04947916729356295</v>
+        <v>0.05062988885263706</v>
       </c>
     </row>
     <row r="9">
@@ -8328,19 +8328,19 @@
         <v>521994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>489138</v>
+        <v>485884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>555437</v>
+        <v>555163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5446476163295727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5103656730599785</v>
+        <v>0.5069710687235892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.579542202807893</v>
+        <v>0.579256831950023</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>836</v>
@@ -8349,19 +8349,19 @@
         <v>603250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>572438</v>
+        <v>574876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>629350</v>
+        <v>636196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5433633660418494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5156108969905299</v>
+        <v>0.5178067182176093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5668723370341956</v>
+        <v>0.5730387233413807</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1322</v>
@@ -8370,19 +8370,19 @@
         <v>1125243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1074978</v>
+        <v>1079536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1168789</v>
+        <v>1165416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5439583682017255</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5196594440399659</v>
+        <v>0.5218628622924876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5650092741477613</v>
+        <v>0.5633782693664422</v>
       </c>
     </row>
     <row r="11">
@@ -8399,19 +8399,19 @@
         <v>278332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247481</v>
+        <v>249025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311297</v>
+        <v>308973</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2904117406243879</v>
+        <v>0.290411740624388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2582209956477234</v>
+        <v>0.259832144630869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3248069819213421</v>
+        <v>0.3223821073326355</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>485</v>
@@ -8420,19 +8420,19 @@
         <v>326000</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301658</v>
+        <v>299345</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>352913</v>
+        <v>353593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2936367865024175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2717112770794159</v>
+        <v>0.2696283157036851</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3178784859601962</v>
+        <v>0.3184910865323447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>745</v>
@@ -8441,19 +8441,19 @@
         <v>604332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>565972</v>
+        <v>567674</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647672</v>
+        <v>642474</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2921426001421176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2735990062030124</v>
+        <v>0.27442141866359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3130935504783022</v>
+        <v>0.3105808255667864</v>
       </c>
     </row>
     <row r="12">
@@ -8470,19 +8470,19 @@
         <v>115233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93828</v>
+        <v>96251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138181</v>
+        <v>140653</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1202344329209403</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09790037611072945</v>
+        <v>0.1004279148761846</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.14417775479366</v>
+        <v>0.1467575797944964</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>190</v>
@@ -8491,19 +8491,19 @@
         <v>126399</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>109680</v>
+        <v>109758</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>147313</v>
+        <v>146002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1138508117064865</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09879172256616948</v>
+        <v>0.09886214736272039</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1326888765973215</v>
+        <v>0.1315081993273587</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>304</v>
@@ -8512,19 +8512,19 @@
         <v>241632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>215434</v>
+        <v>215388</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>274501</v>
+        <v>274585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1168083881592548</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.10414374573204</v>
+        <v>0.1041216769948155</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1326976745303187</v>
+        <v>0.1327384004839687</v>
       </c>
     </row>
     <row r="13">
@@ -8541,19 +8541,19 @@
         <v>22867</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15702</v>
+        <v>15857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33983</v>
+        <v>33759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02385943733656211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01638348268553122</v>
+        <v>0.0165449103170488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03545780026460688</v>
+        <v>0.03522385187275725</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -8562,19 +8562,19 @@
         <v>39617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30897</v>
+        <v>30891</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50121</v>
+        <v>50719</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03568449027332612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02783013061229118</v>
+        <v>0.02782466668895303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04514520372437982</v>
+        <v>0.04568386717050055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -8583,19 +8583,19 @@
         <v>62484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49674</v>
+        <v>51071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76241</v>
+        <v>76658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03020586036349921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02401303582072222</v>
+        <v>0.02468863095415965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03685614652297678</v>
+        <v>0.03705749237352981</v>
       </c>
     </row>
     <row r="14">
@@ -8612,19 +8612,19 @@
         <v>19980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12649</v>
+        <v>12741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32024</v>
+        <v>30930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02084677278853711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01319760825524848</v>
+        <v>0.0132937303305936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03341431340739925</v>
+        <v>0.0322726492533807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -8633,19 +8633,19 @@
         <v>14949</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9909</v>
+        <v>9958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21949</v>
+        <v>22595</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01346454547592037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008925159106151322</v>
+        <v>0.008969538707926973</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01977018881665426</v>
+        <v>0.02035203190861837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>44</v>
@@ -8654,19 +8654,19 @@
         <v>34928</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25675</v>
+        <v>24994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48866</v>
+        <v>47969</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01688478313340277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01241151323729386</v>
+        <v>0.01208230059929082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02362241723158168</v>
+        <v>0.02318898796908966</v>
       </c>
     </row>
     <row r="15">
@@ -8758,19 +8758,19 @@
         <v>718831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>687621</v>
+        <v>685296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>750661</v>
+        <v>749468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6885377021155478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6586426872040372</v>
+        <v>0.6564152797338338</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7190255870983095</v>
+        <v>0.7178834668796166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>954</v>
@@ -8779,19 +8779,19 @@
         <v>683468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>658381</v>
+        <v>655833</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>709464</v>
+        <v>710283</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6560052758642151</v>
+        <v>0.6560052758642152</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6319259657044611</v>
+        <v>0.6294803332280023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6809563685515345</v>
+        <v>0.6817422022700985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1634</v>
@@ -8800,19 +8800,19 @@
         <v>1402300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1361864</v>
+        <v>1361847</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1444905</v>
+        <v>1442175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6722881189498986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6529025502250434</v>
+        <v>0.6528944296771815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6927138991320742</v>
+        <v>0.6914053598397479</v>
       </c>
     </row>
     <row r="17">
@@ -8829,19 +8829,19 @@
         <v>256199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>221770</v>
+        <v>228851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>283147</v>
+        <v>285798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.245401574454494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2124237537082479</v>
+        <v>0.2192069634395592</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2712144969834026</v>
+        <v>0.273753449373216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>420</v>
@@ -8850,19 +8850,19 @@
         <v>275047</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>253358</v>
+        <v>254138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>299185</v>
+        <v>303988</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2639952482947941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2431774170791148</v>
+        <v>0.2439260898415665</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2871636549944728</v>
+        <v>0.2917729556544985</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>691</v>
@@ -8871,19 +8871,19 @@
         <v>531246</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>493538</v>
+        <v>492901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>572089</v>
+        <v>569455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2546889066408087</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2366112535494508</v>
+        <v>0.2363056400257176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2742700311079234</v>
+        <v>0.2730072025384373</v>
       </c>
     </row>
     <row r="18">
@@ -8900,19 +8900,19 @@
         <v>55572</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42027</v>
+        <v>42362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>71945</v>
+        <v>74780</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05322997603004837</v>
+        <v>0.05322997603004838</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04025575709486497</v>
+        <v>0.04057711276360333</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06891306379530358</v>
+        <v>0.0716289143372173</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>90</v>
@@ -8921,19 +8921,19 @@
         <v>57191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46420</v>
+        <v>45401</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70363</v>
+        <v>70663</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0548927077147797</v>
+        <v>0.05489270771477971</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04455454878120884</v>
+        <v>0.0435771566024156</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06753533010107562</v>
+        <v>0.06782384784698402</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>148</v>
@@ -8942,19 +8942,19 @@
         <v>112763</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93314</v>
+        <v>94299</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132776</v>
+        <v>134828</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05406049191547499</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04473629370951398</v>
+        <v>0.04520868653744026</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0636553351579867</v>
+        <v>0.0646390568996686</v>
       </c>
     </row>
     <row r="19">
@@ -8971,19 +8971,19 @@
         <v>9328</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5008</v>
+        <v>5101</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15792</v>
+        <v>15842</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008934721336860119</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004796512765964848</v>
+        <v>0.004885564387820264</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01512663185975987</v>
+        <v>0.0151744283180539</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -8992,19 +8992,19 @@
         <v>17679</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12211</v>
+        <v>11810</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25721</v>
+        <v>24924</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01696846420612036</v>
+        <v>0.01696846420612037</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01172076442752895</v>
+        <v>0.01133525754202483</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02468751362275498</v>
+        <v>0.02392231130427935</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -9013,19 +9013,19 @@
         <v>27007</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19138</v>
+        <v>19284</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36760</v>
+        <v>36571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01294748607432379</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009174982679235581</v>
+        <v>0.009245118969173464</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01762321439140794</v>
+        <v>0.01753287840277335</v>
       </c>
     </row>
     <row r="20">
@@ -9042,19 +9042,19 @@
         <v>4067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1173</v>
+        <v>737</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10820</v>
+        <v>10660</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0038960260630496</v>
+        <v>0.003896026063049601</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001123611629486221</v>
+        <v>0.0007060433335177131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01036387504308095</v>
+        <v>0.01021100340744829</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -9063,19 +9063,19 @@
         <v>8479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4840</v>
+        <v>4720</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14337</v>
+        <v>14074</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.008138303920090805</v>
+        <v>0.008138303920090803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004645320491405585</v>
+        <v>0.004530381239674813</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01376053633610085</v>
+        <v>0.0135089135829869</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -9084,19 +9084,19 @@
         <v>12546</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7680</v>
+        <v>7657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19809</v>
+        <v>20711</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.006014996419493859</v>
+        <v>0.00601499641949386</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003682002568908526</v>
+        <v>0.003670978501959765</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009496801763326691</v>
+        <v>0.009929344802767753</v>
       </c>
     </row>
     <row r="21">
@@ -9188,19 +9188,19 @@
         <v>660226</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>627376</v>
+        <v>625702</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>689332</v>
+        <v>690169</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6807319754290785</v>
+        <v>0.6807319754290784</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6468621001618057</v>
+        <v>0.6451360639300795</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7107420647679354</v>
+        <v>0.7116051826340389</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>873</v>
@@ -9209,19 +9209,19 @@
         <v>636492</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>612216</v>
+        <v>613221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>659822</v>
+        <v>657876</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7083390575859477</v>
+        <v>0.7083390575859476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6813233448161635</v>
+        <v>0.6824422691279516</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7343033234455506</v>
+        <v>0.7321373999840229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1482</v>
@@ -9230,19 +9230,19 @@
         <v>1296717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1255593</v>
+        <v>1258421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1334940</v>
+        <v>1334415</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6940087162115577</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.671999029359365</v>
+        <v>0.6735127319339709</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7144657640151851</v>
+        <v>0.7141846655370123</v>
       </c>
     </row>
     <row r="23">
@@ -9259,19 +9259,19 @@
         <v>259196</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230101</v>
+        <v>228218</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>288662</v>
+        <v>288833</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2672467877395091</v>
+        <v>0.267246787739509</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2372473694345804</v>
+        <v>0.235305936656165</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2976275845214027</v>
+        <v>0.2978043989437678</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>370</v>
@@ -9280,19 +9280,19 @@
         <v>217848</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>196150</v>
+        <v>197691</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240218</v>
+        <v>240302</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2424387618252681</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2182910806639046</v>
+        <v>0.2200069767135624</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2673342259396519</v>
+        <v>0.2674268929868662</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>651</v>
@@ -9301,19 +9301,19 @@
         <v>477044</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>444453</v>
+        <v>442773</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>515405</v>
+        <v>514410</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2553161632889838</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2378730724176218</v>
+        <v>0.2369739198542679</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2758471403858003</v>
+        <v>0.2753143124252626</v>
       </c>
     </row>
     <row r="24">
@@ -9330,19 +9330,19 @@
         <v>28613</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19929</v>
+        <v>20045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43636</v>
+        <v>42324</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02950160756712674</v>
+        <v>0.02950160756712673</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0205475637051558</v>
+        <v>0.02066783844575137</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04499117514542605</v>
+        <v>0.04363896274566065</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -9351,19 +9351,19 @@
         <v>28950</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21529</v>
+        <v>20750</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41156</v>
+        <v>40627</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03221812613561092</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02395950987141742</v>
+        <v>0.02309188019510588</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04580202176859451</v>
+        <v>0.04521275362504618</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -9372,19 +9372,19 @@
         <v>57563</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44792</v>
+        <v>44453</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>73460</v>
+        <v>74844</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03080803005174929</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02397286628820159</v>
+        <v>0.02379165273703743</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03931618252676126</v>
+        <v>0.04005687567395057</v>
       </c>
     </row>
     <row r="25">
@@ -9401,19 +9401,19 @@
         <v>20731</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12612</v>
+        <v>12627</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34338</v>
+        <v>36625</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02137531964985985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01300369650204194</v>
+        <v>0.01301958812351842</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03540420358722054</v>
+        <v>0.03776219083412029</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -9422,19 +9422,19 @@
         <v>10083</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6144</v>
+        <v>6046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16515</v>
+        <v>15896</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01122070409491738</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006837165924976945</v>
+        <v>0.006727920468544087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0183792768570001</v>
+        <v>0.01768993692852147</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -9443,19 +9443,19 @@
         <v>30814</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21531</v>
+        <v>21471</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45765</v>
+        <v>46071</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0164917829652285</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01152373004430457</v>
+        <v>0.0114913794706615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02449342238515471</v>
+        <v>0.02465722777174142</v>
       </c>
     </row>
     <row r="26">
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3949</v>
+        <v>3883</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001144309614425864</v>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.004072055017728678</v>
+        <v>0.004003262181130823</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -9493,19 +9493,19 @@
         <v>5197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2313</v>
+        <v>2289</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10433</v>
+        <v>10509</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.00578335035825602</v>
+        <v>0.005783350358256019</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002573631460704087</v>
+        <v>0.002547723250842274</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01161070227505848</v>
+        <v>0.01169559922418087</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -9514,19 +9514,19 @@
         <v>6307</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2973</v>
+        <v>3200</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11338</v>
+        <v>12495</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003375307482480793</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001591294033640556</v>
+        <v>0.001712501959368076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006068088110950421</v>
+        <v>0.006687217783641323</v>
       </c>
     </row>
     <row r="27">
@@ -9618,19 +9618,19 @@
         <v>2131824</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2070937</v>
+        <v>2068418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2194044</v>
+        <v>2195076</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6147237180641982</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5971665070487766</v>
+        <v>0.5964402411362213</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6326650432251235</v>
+        <v>0.6329625822767816</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3051</v>
@@ -9639,19 +9639,19 @@
         <v>2223520</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2174351</v>
+        <v>2171599</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2276642</v>
+        <v>2277768</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6055794707403849</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5921882083042341</v>
+        <v>0.5914387157566712</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6200474351271165</v>
+        <v>0.6203540300141455</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5026</v>
@@ -9660,19 +9660,19 @@
         <v>4355344</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4273612</v>
+        <v>4276152</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4437300</v>
+        <v>4438652</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6100210944302985</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5985735562722814</v>
+        <v>0.5989292222860895</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6215000331851318</v>
+        <v>0.6216894389110141</v>
       </c>
     </row>
     <row r="29">
@@ -9689,19 +9689,19 @@
         <v>909979</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>858009</v>
+        <v>853293</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>968088</v>
+        <v>968254</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2623975717475808</v>
+        <v>0.2623975717475807</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2474117403302727</v>
+        <v>0.2460519936090518</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.279153576809218</v>
+        <v>0.2792016419231998</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1487</v>
@@ -9710,19 +9710,19 @@
         <v>965670</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>918470</v>
+        <v>917737</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1010427</v>
+        <v>1013248</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2630018302266454</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.250146968803254</v>
+        <v>0.2499472484590297</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2751913811809439</v>
+        <v>0.2759597741253161</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2404</v>
@@ -9731,19 +9731,19 @@
         <v>1875648</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1808772</v>
+        <v>1804034</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1948902</v>
+        <v>1950298</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2627083245196797</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2533414751194673</v>
+        <v>0.252677870948214</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2729684696073522</v>
+        <v>0.2731639370928172</v>
       </c>
     </row>
     <row r="30">
@@ -9760,19 +9760,19 @@
         <v>285713</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>250176</v>
+        <v>252279</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>323591</v>
+        <v>322569</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08238690000861933</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07213957424541076</v>
+        <v>0.07274610309514358</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09330927057920686</v>
+        <v>0.09301463676087018</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>471</v>
@@ -9781,19 +9781,19 @@
         <v>313290</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>285204</v>
+        <v>284950</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>342966</v>
+        <v>343261</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08532498140221155</v>
+        <v>0.08532498140221154</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07767585667167222</v>
+        <v>0.07760656829006625</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09340735866874414</v>
+        <v>0.09348783127480166</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>754</v>
@@ -9802,19 +9802,19 @@
         <v>599002</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>557084</v>
+        <v>554062</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>644511</v>
+        <v>642643</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08389787084203568</v>
+        <v>0.0838978708420357</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07802673648237134</v>
+        <v>0.07760342008333451</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09027190929389932</v>
+        <v>0.09001027686015356</v>
       </c>
     </row>
     <row r="31">
@@ -9831,19 +9831,19 @@
         <v>98738</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>80533</v>
+        <v>80645</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>122089</v>
+        <v>122515</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02847174033128979</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02322204192714336</v>
+        <v>0.02325457738544006</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03520509744792025</v>
+        <v>0.03532803274208613</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>185</v>
@@ -9852,19 +9852,19 @@
         <v>116492</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>99302</v>
+        <v>99810</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>135236</v>
+        <v>134793</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0317267070293947</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02704497867107454</v>
+        <v>0.02718335757497444</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03683187871847879</v>
+        <v>0.03671113964528101</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>291</v>
@@ -9873,19 +9873,19 @@
         <v>215230</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>189596</v>
+        <v>188721</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>245550</v>
+        <v>243564</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03014567617095179</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02655536787576364</v>
+        <v>0.02643272508615886</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03439236225015786</v>
+        <v>0.03411423539929986</v>
       </c>
     </row>
     <row r="32">
@@ -9902,19 +9902,19 @@
         <v>41685</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>29917</v>
+        <v>29348</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57518</v>
+        <v>55497</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01202006984831196</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008626635247474444</v>
+        <v>0.008462687528544278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01658569879979927</v>
+        <v>0.01600293339177411</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>78</v>
@@ -9923,19 +9923,19 @@
         <v>52752</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41114</v>
+        <v>41481</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>69503</v>
+        <v>68488</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01436701060136348</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01119752987670325</v>
+        <v>0.01129741589197578</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01892939276415295</v>
+        <v>0.01865276492653449</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>123</v>
@@ -9944,19 +9944,19 @@
         <v>94437</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79265</v>
+        <v>78329</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>115564</v>
+        <v>116542</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01322703403703425</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01110213175190181</v>
+        <v>0.01097102878302258</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01618623976301491</v>
+        <v>0.01632313370161539</v>
       </c>
     </row>
     <row r="33">
